--- a/Schema per polling storie.xlsx
+++ b/Schema per polling storie.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\141664\Desktop\techweb2020\Project_updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\techweb2020\techweb2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB23727-4225-46D9-A063-CF86484660B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="2616" windowWidth="20016" windowHeight="11448" xr2:uid="{BE81DF39-9077-4688-B935-15DF42595EB8}"/>
+    <workbookView xWindow="1365" yWindow="2610" windowWidth="20010" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>idPartita</t>
   </si>
@@ -45,9 +44,6 @@
     <t>currentStepId</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>creare tot righe quando si generano i qr code</t>
   </si>
   <si>
@@ -66,13 +62,19 @@
     <t xml:space="preserve">se otteniamo da backend un currentStepId piu alto del nostro, facciamo avanzare il nostro ( dando un alert ) </t>
   </si>
   <si>
-    <t>finish</t>
+    <t>idClasse</t>
+  </si>
+  <si>
+    <t>statoStep</t>
+  </si>
+  <si>
+    <t>unresolved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,24 +419,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7055B9-D9C1-4A94-AB3D-6909B68BE7F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -446,7 +449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -459,8 +462,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -474,7 +480,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -488,7 +494,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -502,10 +508,10 @@
         <v>-1</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -519,10 +525,10 @@
         <v>-1</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -536,27 +542,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="K8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Schema per polling storie.xlsx
+++ b/Schema per polling storie.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
